--- a/issues96/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/issues96/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from c80-doc-typecode" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T15:04:53+00:00</t>
+    <t>2024-04-04T12:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -99,22 +99,16 @@
     <t>57830-2</t>
   </si>
   <si>
-    <t>Admission request Document</t>
-  </si>
-  <si>
     <t>51848-0</t>
   </si>
   <si>
-    <t>Assessment note</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
@@ -399,32 +393,28 @@
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/issues96/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/issues96/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -51,10 +51,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:58:54+00:00</t>
+    <t>2024-04-05T07:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -302,66 +305,68 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -383,38 +388,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/issues96/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/issues96/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-05T07:48:28+00:00</t>
+    <t>2024-04-08T12:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -291,7 +291,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/issues96/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/issues96/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T12:44:22+00:00</t>
+    <t>2024-04-08T13:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
